--- a/Tata Motors Model.xlsx
+++ b/Tata Motors Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2tin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC05A00E-1AF5-4F01-BAE1-E7EECF085CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4CC7C4-9004-4752-B940-2E73193B8E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="17" r:id="rId1"/>
@@ -6147,7 +6147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEBB149-3171-4DC9-899E-005F6B5A2BC5}">
   <dimension ref="B13:R26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
@@ -6298,7 +6298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02862AB0-4173-48D7-BF39-DABBCBE39EDE}">
   <dimension ref="A1:AD15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
@@ -7540,11 +7540,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872ACF3F-4DCF-4C1F-8823-6C9F3AA28D8D}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="14.5"/>
@@ -7552,7 +7552,7 @@
     <col min="1" max="16384" width="12.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.5">
+    <row r="1" spans="1:11" ht="23.5">
       <c r="A1" s="66" t="s">
         <v>198</v>
       </c>
@@ -7567,7 +7567,7 @@
       <c r="J1" s="67"/>
       <c r="K1" s="67"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:11">
       <c r="A2" s="52" t="s">
         <v>87</v>
       </c>
@@ -7576,15 +7576,12 @@
         <v>A</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="31" customFormat="1">
+    <row r="4" spans="1:11" s="31" customFormat="1">
       <c r="A4" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="O4" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="31" customFormat="1">
+    </row>
+    <row r="5" spans="1:11" s="31" customFormat="1">
       <c r="A5" s="57" t="s">
         <v>169</v>
       </c>
@@ -7617,11 +7614,8 @@
         <f>IF(Case="A",K6,IF(Case="B",K7,K8))</f>
         <v>8.4773847852073134E-2</v>
       </c>
-      <c r="O5" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:11">
       <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
@@ -7645,11 +7639,8 @@
         <f t="shared" si="0"/>
         <v>8.4773847852073134E-2</v>
       </c>
-      <c r="O6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:11">
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
@@ -7674,7 +7665,7 @@
         <v>7.0644873210060952E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:11">
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
@@ -7699,12 +7690,12 @@
         <v>5.6515898568048763E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="31" customFormat="1">
+    <row r="9" spans="1:11" s="31" customFormat="1">
       <c r="A9" s="31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="31" customFormat="1">
+    <row r="10" spans="1:11" s="31" customFormat="1">
       <c r="A10" s="57" t="s">
         <v>12</v>
       </c>
@@ -7737,7 +7728,7 @@
         <v>-0.31240519142474965</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:11">
       <c r="F11" s="2" t="s">
         <v>9</v>
       </c>
@@ -7762,7 +7753,7 @@
         <v>-0.31240519142474965</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:11">
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
@@ -7787,7 +7778,7 @@
         <v>-0.39050648928093701</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:11">
       <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
@@ -7812,12 +7803,12 @@
         <v>-0.46860778713712437</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="31" customFormat="1">
+    <row r="14" spans="1:11" s="31" customFormat="1">
       <c r="A14" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="31" customFormat="1">
+    <row r="15" spans="1:11" s="31" customFormat="1">
       <c r="A15" s="57" t="s">
         <v>13</v>
       </c>
@@ -7854,7 +7845,7 @@
         <v>0.60269874617995145</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:11">
       <c r="F16" s="2" t="s">
         <v>9</v>
       </c>
